--- a/classfiers/bottleneck/randomForest/bottleneck-randomForest-results.xlsx
+++ b/classfiers/bottleneck/randomForest/bottleneck-randomForest-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.143939393939394</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2516556291390729</v>
+        <v>0.1886792452830189</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8337432365961633</v>
+        <v>0.8036945812807882</v>
       </c>
     </row>
     <row r="3">
@@ -508,10 +508,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7222222222222222</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8387096774193548</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -527,10 +527,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.6153846153846153</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2777777777777778</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4347826086956522</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9296469366562824</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8287878787878789</v>
+        <v>0.6208333333333333</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="D7" t="n">
-        <v>0.705029583050816</v>
+        <v>0.5608127721335269</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9526780346504891</v>
+        <v>0.9607389162561576</v>
       </c>
     </row>
   </sheetData>
